--- a/src/AustralianHolidays/Resources/HolidayTemplate.xlsx
+++ b/src/AustralianHolidays/Resources/HolidayTemplate.xlsx
@@ -9,6 +9,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -34,9 +37,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
   </cellXfs>
 </styleSheet>
 </file>

--- a/src/AustralianHolidays/Resources/HolidayTemplate.xlsx
+++ b/src/AustralianHolidays/Resources/HolidayTemplate.xlsx
@@ -47,6 +47,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
